--- a/Set ID 2019.xlsx
+++ b/Set ID 2019.xlsx
@@ -299,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,15 +348,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,9 +623,7 @@
       <c r="AMJ8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>233000315</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -645,9 +639,7 @@
       <c r="AMJ9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>233000315</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -663,9 +655,7 @@
       <c r="AMJ10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>233000315</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
@@ -681,9 +671,7 @@
       <c r="AMJ11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>233000315</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
@@ -812,19 +800,19 @@
       <c r="AMJ18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="6" t="n">
         <v>233000600</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="6" t="n">
         <v>233000684</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="7" t="n">
         <v>1081</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="6" t="str">
         <f aca="false">DEC2HEX(D19)</f>
         <v>439</v>
       </c>
@@ -832,17 +820,15 @@
       <c r="AMJ19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <v>233000600</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="6" t="n">
         <v>5177</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="6" t="str">
         <f aca="false">DEC2HEX(D20)</f>
         <v>1439</v>
       </c>
@@ -850,17 +836,15 @@
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <v>233000600</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="6" t="n">
         <v>9273</v>
       </c>
-      <c r="E21" s="11" t="str">
+      <c r="E21" s="6" t="str">
         <f aca="false">DEC2HEX(D21)</f>
         <v>2439</v>
       </c>
@@ -868,17 +852,17 @@
       <c r="AMJ21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="6" t="n">
         <v>233000685</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="6" t="n">
         <v>233000699</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="AMI22" s="5"/>
       <c r="AMJ22" s="5"/>
     </row>
@@ -960,32 +944,32 @@
       <c r="AMJ26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="6" t="n">
         <v>233000900</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="n">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AMI27" s="5"/>
       <c r="AMJ27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="6" t="n">
         <v>233001000</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="6" t="n">
         <v>1527</v>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="6" t="str">
         <f aca="false">DEC2HEX(D28)</f>
         <v>5F7</v>
       </c>
@@ -993,37 +977,35 @@
       <c r="AMJ28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
-        <v>233001000</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="6" t="n">
         <v>1528</v>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="6" t="str">
         <f aca="false">DEC2HEX(D29)</f>
         <v>5F8</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
       <c r="AMI29" s="5"/>
       <c r="AMJ29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="6" t="n">
         <v>233001061</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="6" t="n">
         <v>1529</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="6" t="str">
         <f aca="false">DEC2HEX(D30)</f>
         <v>5F9</v>
       </c>
@@ -1031,17 +1013,17 @@
       <c r="AMJ30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="6" t="n">
         <v>233001100</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="6" t="str">
         <f aca="false">DEC2HEX(D31)</f>
         <v>7D0</v>
       </c>
@@ -1049,17 +1031,17 @@
       <c r="AMJ31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="6" t="n">
         <v>233001200</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="7" t="n">
         <v>1225</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="6" t="str">
         <f aca="false">DEC2HEX(D32)</f>
         <v>4C9</v>
       </c>
@@ -1067,17 +1049,15 @@
       <c r="AMJ32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
-        <v>233001200</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="6" t="n">
         <v>5321</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="6" t="str">
         <f aca="false">DEC2HEX(D33)</f>
         <v>14C9</v>
       </c>
@@ -1085,17 +1065,17 @@
       <c r="AMJ33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="6" t="n">
         <v>233001200</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="6" t="n">
         <v>9417</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="6" t="str">
         <f aca="false">DEC2HEX(D34)</f>
         <v>24C9</v>
       </c>
@@ -1103,17 +1083,17 @@
       <c r="AMJ34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="6" t="n">
         <v>233001251</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="7" t="n">
         <v>2512</v>
       </c>
-      <c r="E35" s="11" t="str">
+      <c r="E35" s="6" t="str">
         <f aca="false">DEC2HEX(D35)</f>
         <v>9D0</v>
       </c>
@@ -1121,17 +1101,15 @@
       <c r="AMJ35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
-        <v>233001251</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>2820560</v>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="6" t="str">
         <f aca="false">DEC2HEX(D36)</f>
         <v>2B09D0</v>
       </c>
@@ -1159,19 +1137,19 @@
       <c r="AMJ37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+      <c r="A38" s="14" t="n">
         <v>233001314</v>
       </c>
-      <c r="B38" s="15" t="n">
+      <c r="B38" s="14" t="n">
         <v>233001327</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="15" t="n">
+      <c r="D38" s="14" t="n">
         <v>2008</v>
       </c>
-      <c r="E38" s="15" t="str">
+      <c r="E38" s="14" t="str">
         <f aca="false">DEC2HEX(D38)</f>
         <v>7D8</v>
       </c>
@@ -1183,7 +1161,7 @@
       <c r="AMJ39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1169,7 @@
       <c r="AMJ40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1177,7 @@
       <c r="AMJ41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
+      <c r="A42" s="17"/>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>

--- a/Set ID 2019.xlsx
+++ b/Set ID 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">New Start ID</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Snowstorm Reindeer Ninja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Blossom Reindeer</t>
   </si>
   <si>
     <t xml:space="preserve">Blazefur Athlete</t>
@@ -167,6 +170,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,10 +320,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,10 +340,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,6 +349,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,718 +487,723 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="AMI1" s="5"/>
-      <c r="AMJ1" s="5"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="5" t="n">
         <v>233000000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="AMJ2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="AMJ2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>233000100</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="5" t="str">
         <f aca="false">DEC2HEX(D3)</f>
         <v>4B0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="AMJ3" s="5"/>
+      <c r="AMJ3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>233000141</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>1523</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="5" t="str">
         <f aca="false">DEC2HEX(D4)</f>
         <v>5F3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="AMJ4" s="5"/>
+      <c r="AMJ4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>233000200</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>1521</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="5" t="str">
         <f aca="false">DEC2HEX(D5)</f>
         <v>5F1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="AMJ5" s="5"/>
+      <c r="AMJ5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>233000271</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>1522</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="5" t="str">
         <f aca="false">DEC2HEX(D6)</f>
         <v>5F2</v>
       </c>
-      <c r="AMI6" s="5"/>
-      <c r="AMJ6" s="5"/>
+      <c r="AMI6" s="4"/>
+      <c r="AMJ6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="5" t="n">
         <v>233000300</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>1524</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="5" t="str">
         <f aca="false">DEC2HEX(D7)</f>
         <v>5F4</v>
       </c>
-      <c r="AMI7" s="5"/>
-      <c r="AMJ7" s="5"/>
+      <c r="AMI7" s="4"/>
+      <c r="AMJ7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="5" t="n">
         <v>233000315</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>233000350</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>2005</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="7" t="str">
         <f aca="false">DEC2HEX(D8)</f>
         <v>7D5</v>
       </c>
-      <c r="AMI8" s="5"/>
-      <c r="AMJ8" s="5"/>
+      <c r="AMI8" s="4"/>
+      <c r="AMJ8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>6101</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="7" t="str">
         <f aca="false">DEC2HEX(D9)</f>
         <v>17D5</v>
       </c>
-      <c r="AMI9" s="5"/>
-      <c r="AMJ9" s="5"/>
+      <c r="AMI9" s="4"/>
+      <c r="AMJ9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>10197</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="7" t="str">
         <f aca="false">DEC2HEX(D10)</f>
         <v>27D5</v>
       </c>
-      <c r="AMI10" s="5"/>
-      <c r="AMJ10" s="5"/>
+      <c r="AMI10" s="4"/>
+      <c r="AMJ10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>14293</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="7" t="str">
         <f aca="false">DEC2HEX(D11)</f>
         <v>37D5</v>
       </c>
-      <c r="AMI11" s="5"/>
-      <c r="AMJ11" s="5"/>
+      <c r="AMI11" s="4"/>
+      <c r="AMJ11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>18389</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="7" t="str">
         <f aca="false">DEC2HEX(D12)</f>
         <v>47D5</v>
       </c>
-      <c r="AMI12" s="5"/>
-      <c r="AMJ12" s="5"/>
+      <c r="AMI12" s="4"/>
+      <c r="AMJ12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="8" t="n">
         <v>233000351</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="AMI13" s="5"/>
-      <c r="AMJ13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="AMI13" s="4"/>
+      <c r="AMJ13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="5" t="n">
         <v>233000400</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="5" t="n">
         <v>233000414</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="5" t="n">
         <v>1991</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="5" t="str">
         <f aca="false">DEC2HEX(D14)</f>
         <v>7C7</v>
       </c>
-      <c r="AMI14" s="5"/>
-      <c r="AMJ14" s="5"/>
+      <c r="AMI14" s="4"/>
+      <c r="AMJ14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="5" t="n">
         <v>233000415</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="5" t="n">
         <v>233000435</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="5" t="n">
         <v>1992</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="7" t="str">
         <f aca="false">DEC2HEX(D15)</f>
         <v>7C8</v>
       </c>
-      <c r="AMI15" s="5"/>
-      <c r="AMJ15" s="5"/>
+      <c r="AMI15" s="4"/>
+      <c r="AMJ15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="5" t="n">
         <v>233000500</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="5" t="n">
         <v>233000540</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="5" t="n">
         <v>1199</v>
       </c>
-      <c r="E16" s="6" t="str">
+      <c r="E16" s="5" t="str">
         <f aca="false">DEC2HEX(D16)</f>
         <v>4AF</v>
       </c>
-      <c r="AMI16" s="5"/>
-      <c r="AMJ16" s="5"/>
+      <c r="AMI16" s="4"/>
+      <c r="AMJ16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="5" t="n">
         <v>233000541</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="5" t="n">
         <v>233000555</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="5" t="n">
         <v>1198</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="5" t="str">
         <f aca="false">DEC2HEX(D17)</f>
         <v>4AE</v>
       </c>
-      <c r="AMI17" s="5"/>
-      <c r="AMJ17" s="5"/>
+      <c r="AMI17" s="4"/>
+      <c r="AMJ17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="5" t="n">
         <v>233000556</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="5" t="n">
         <v>233000570</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="6" t="n">
         <v>1082</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="E18" s="5" t="str">
         <f aca="false">DEC2HEX(D18)</f>
         <v>43A</v>
       </c>
-      <c r="AMI18" s="5"/>
-      <c r="AMJ18" s="5"/>
+      <c r="AMI18" s="4"/>
+      <c r="AMJ18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="5" t="n">
         <v>233000600</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="5" t="n">
         <v>233000684</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="6" t="n">
         <v>1081</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="5" t="str">
         <f aca="false">DEC2HEX(D19)</f>
         <v>439</v>
       </c>
-      <c r="AMI19" s="5"/>
-      <c r="AMJ19" s="5"/>
+      <c r="AMI19" s="4"/>
+      <c r="AMJ19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="5" t="n">
         <v>5177</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="5" t="str">
         <f aca="false">DEC2HEX(D20)</f>
         <v>1439</v>
       </c>
-      <c r="AMI20" s="5"/>
-      <c r="AMJ20" s="5"/>
+      <c r="AMI20" s="4"/>
+      <c r="AMJ20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="5" t="n">
         <v>9273</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="5" t="str">
         <f aca="false">DEC2HEX(D21)</f>
         <v>2439</v>
       </c>
-      <c r="AMI21" s="5"/>
-      <c r="AMJ21" s="5"/>
+      <c r="AMI21" s="4"/>
+      <c r="AMJ21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="5" t="n">
         <v>233000685</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="5" t="n">
         <v>233000699</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="AMI22" s="5"/>
-      <c r="AMJ22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="AMI22" s="4"/>
+      <c r="AMJ22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="5" t="n">
         <v>233000700</v>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="5" t="n">
         <v>233000719</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="5" t="n">
         <v>1520</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E23" s="5" t="str">
         <f aca="false">DEC2HEX(D23)</f>
         <v>5F0</v>
       </c>
-      <c r="AMI23" s="5"/>
-      <c r="AMJ23" s="5"/>
+      <c r="AMI23" s="4"/>
+      <c r="AMJ23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="5" t="n">
         <v>233000720</v>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="5" t="n">
         <v>233000739</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="5" t="n">
         <v>1600</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="5" t="str">
         <f aca="false">DEC2HEX(D24)</f>
         <v>640</v>
       </c>
-      <c r="AMI24" s="5"/>
-      <c r="AMJ24" s="5"/>
+      <c r="AMI24" s="4"/>
+      <c r="AMJ24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="5" t="n">
         <v>233000740</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="5" t="n">
         <v>233000756</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="5" t="n">
         <v>1601</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" s="5" t="str">
         <f aca="false">DEC2HEX(D25)</f>
         <v>641</v>
       </c>
-      <c r="AMI25" s="5"/>
-      <c r="AMJ25" s="5"/>
+      <c r="AMI25" s="4"/>
+      <c r="AMJ25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="9" t="n">
         <v>233000800</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="str">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="str">
         <f aca="false">DEC2HEX(D26)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="AMI26" s="5"/>
-      <c r="AMJ26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="AMI26" s="4"/>
+      <c r="AMJ26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="5" t="n">
         <v>233000900</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="n">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AMI27" s="5"/>
-      <c r="AMJ27" s="5"/>
+      <c r="AMI27" s="4"/>
+      <c r="AMJ27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="5" t="n">
         <v>233001000</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="5" t="n">
         <v>1527</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E28" s="5" t="str">
         <f aca="false">DEC2HEX(D28)</f>
         <v>5F7</v>
       </c>
-      <c r="AMI28" s="5"/>
-      <c r="AMJ28" s="5"/>
+      <c r="AMI28" s="4"/>
+      <c r="AMJ28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="5" t="n">
         <v>1528</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E29" s="5" t="str">
         <f aca="false">DEC2HEX(D29)</f>
         <v>5F8</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="AMI29" s="5"/>
-      <c r="AMJ29" s="5"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="AMI29" s="4"/>
+      <c r="AMJ29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="5" t="n">
         <v>233001061</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="5" t="n">
         <v>1529</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="E30" s="5" t="str">
         <f aca="false">DEC2HEX(D30)</f>
         <v>5F9</v>
       </c>
-      <c r="AMI30" s="5"/>
-      <c r="AMJ30" s="5"/>
+      <c r="AMI30" s="4"/>
+      <c r="AMJ30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="5" t="n">
         <v>233001100</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="E31" s="5" t="str">
         <f aca="false">DEC2HEX(D31)</f>
         <v>7D0</v>
       </c>
-      <c r="AMI31" s="5"/>
-      <c r="AMJ31" s="5"/>
+      <c r="AMI31" s="4"/>
+      <c r="AMJ31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="5" t="n">
         <v>233001200</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="6" t="n">
         <v>1225</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="5" t="str">
         <f aca="false">DEC2HEX(D32)</f>
         <v>4C9</v>
       </c>
-      <c r="AMI32" s="5"/>
-      <c r="AMJ32" s="5"/>
+      <c r="AMI32" s="4"/>
+      <c r="AMJ32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="5" t="n">
         <v>5321</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E33" s="5" t="str">
         <f aca="false">DEC2HEX(D33)</f>
         <v>14C9</v>
       </c>
-      <c r="AMI33" s="5"/>
-      <c r="AMJ33" s="5"/>
+      <c r="AMI33" s="4"/>
+      <c r="AMJ33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="5" t="n">
         <v>233001200</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="5" t="n">
         <v>9417</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E34" s="5" t="str">
         <f aca="false">DEC2HEX(D34)</f>
         <v>24C9</v>
       </c>
-      <c r="AMI34" s="5"/>
-      <c r="AMJ34" s="5"/>
+      <c r="AMI34" s="4"/>
+      <c r="AMJ34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="5" t="n">
         <v>233001251</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="5" t="n">
+        <v>233001279</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="6" t="n">
         <v>2512</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E35" s="5" t="str">
         <f aca="false">DEC2HEX(D35)</f>
         <v>9D0</v>
       </c>
-      <c r="AMI35" s="5"/>
-      <c r="AMJ35" s="5"/>
+      <c r="AMI35" s="4"/>
+      <c r="AMJ35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="11" t="n">
         <v>2820560</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="E36" s="5" t="str">
         <f aca="false">DEC2HEX(D36)</f>
         <v>2B09D0</v>
       </c>
-      <c r="AMI36" s="5"/>
-      <c r="AMJ36" s="5"/>
+      <c r="AMI36" s="4"/>
+      <c r="AMJ36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
-        <v>233001300</v>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>233001313</v>
+      <c r="A37" s="5" t="n">
+        <v>233001280</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>233001299</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <v>2007</v>
+      <c r="D37" s="12" t="n">
+        <v>1224</v>
       </c>
       <c r="E37" s="6" t="str">
         <f aca="false">DEC2HEX(D37)</f>
+        <v>4C8</v>
+      </c>
+      <c r="AMI37" s="4"/>
+      <c r="AMJ37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>233001300</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>233001313</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f aca="false">DEC2HEX(D38)</f>
         <v>7D7</v>
       </c>
-      <c r="AMI37" s="5"/>
-      <c r="AMJ37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="AMI38" s="4"/>
+      <c r="AMJ38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="n">
         <v>233001314</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B39" s="13" t="n">
         <v>233001327</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="14" t="n">
+      <c r="C39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="13" t="n">
         <v>2008</v>
       </c>
-      <c r="E38" s="14" t="str">
-        <f aca="false">DEC2HEX(D38)</f>
+      <c r="E39" s="13" t="str">
+        <f aca="false">DEC2HEX(D39)</f>
         <v>7D8</v>
       </c>
-      <c r="AMI38" s="5"/>
-      <c r="AMJ38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI39" s="5"/>
-      <c r="AMJ39" s="5"/>
+      <c r="AMI39" s="4"/>
+      <c r="AMJ39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AMI40" s="5"/>
-      <c r="AMJ40" s="5"/>
+      <c r="AMI40" s="4"/>
+      <c r="AMJ40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
+      <c r="A41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AMI41" s="5"/>
-      <c r="AMJ41" s="5"/>
+      <c r="AMI41" s="4"/>
+      <c r="AMJ41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AMI42" s="5"/>
-      <c r="AMJ42" s="5"/>
+      <c r="AMI42" s="4"/>
+      <c r="AMJ42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI43" s="5"/>
-      <c r="AMJ43" s="5"/>
+      <c r="A43" s="16"/>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMI43" s="4"/>
+      <c r="AMJ43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI44" s="5"/>
-      <c r="AMJ44" s="5"/>
+      <c r="AMI44" s="4"/>
+      <c r="AMJ44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI45" s="5"/>
-      <c r="AMJ45" s="5"/>
+      <c r="AMI45" s="4"/>
+      <c r="AMJ45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI46" s="5"/>
-      <c r="AMJ46" s="5"/>
+      <c r="AMI46" s="4"/>
+      <c r="AMJ46" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Set ID 2019.xlsx
+++ b/Set ID 2019.xlsx
@@ -165,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,6 +229,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <shadow val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <shadow val="true"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -303,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,7 +369,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,7 +460,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
@@ -451,8 +476,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,11 +929,11 @@
         <v>27</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>1601</v>
+        <v>1618</v>
       </c>
       <c r="E25" s="5" t="str">
         <f aca="false">DEC2HEX(D25)</f>
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="AMI25" s="4"/>
       <c r="AMJ25" s="4"/>
@@ -1106,19 +1131,19 @@
       <c r="AMJ36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="12" t="n">
         <v>233001280</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="12" t="n">
         <v>233001299</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="14" t="n">
         <v>1224</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E37" s="13" t="str">
         <f aca="false">DEC2HEX(D37)</f>
         <v>4C8</v>
       </c>
@@ -1146,19 +1171,19 @@
       <c r="AMJ38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="15" t="n">
         <v>233001314</v>
       </c>
-      <c r="B39" s="13" t="n">
+      <c r="B39" s="15" t="n">
         <v>233001327</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="15" t="n">
         <v>2008</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="15" t="str">
         <f aca="false">DEC2HEX(D39)</f>
         <v>7D8</v>
       </c>
@@ -1170,7 +1195,7 @@
       <c r="AMJ40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1203,7 @@
       <c r="AMJ41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
+      <c r="A42" s="17"/>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1211,7 @@
       <c r="AMJ42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="C43" s="1" t="s">
         <v>44</v>
       </c>

--- a/Set ID 2019.xlsx
+++ b/Set ID 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">New Start ID</t>
   </si>
@@ -34,9 +34,15 @@
     <t xml:space="preserve">Hex (0xP)</t>
   </si>
   <si>
+    <t xml:space="preserve">Completion?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Legacy Support</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPD</t>
   </si>
   <si>
@@ -139,13 +145,13 @@
     <t xml:space="preserve">Snowstorm Reindeer Ninja</t>
   </si>
   <si>
+    <t xml:space="preserve">Blazefur Athlete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baofeng Dragon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flash Blossom Reindeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blazefur Athlete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baofeng Dragon</t>
   </si>
   <si>
     <t xml:space="preserve">CDB moved / scripts ready</t>
@@ -165,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,23 +235,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <shadow val="true"/>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <shadow val="true"/>
-      <sz val="12"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -320,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,6 +322,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,20 +362,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -460,7 +445,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
@@ -476,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,725 +495,807 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="AMI1" s="4"/>
-      <c r="AMJ1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="AMI1" s="5"/>
+      <c r="AMJ1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>233000000</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="AMJ2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>233000100</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>1200</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="6" t="str">
         <f aca="false">DEC2HEX(D3)</f>
         <v>4B0</v>
       </c>
-      <c r="AMJ3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>233000141</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>1523</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="6" t="str">
         <f aca="false">DEC2HEX(D4)</f>
         <v>5F3</v>
       </c>
-      <c r="AMJ4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>233000200</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>1521</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="6" t="str">
         <f aca="false">DEC2HEX(D5)</f>
         <v>5F1</v>
       </c>
-      <c r="AMJ5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMJ5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>233000271</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>1522</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="6" t="str">
         <f aca="false">DEC2HEX(D6)</f>
         <v>5F2</v>
       </c>
-      <c r="AMI6" s="4"/>
-      <c r="AMJ6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI6" s="5"/>
+      <c r="AMJ6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>233000300</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>1524</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="6" t="str">
         <f aca="false">DEC2HEX(D7)</f>
         <v>5F4</v>
       </c>
-      <c r="AMI7" s="4"/>
-      <c r="AMJ7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI7" s="5"/>
+      <c r="AMJ7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>233000315</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>233000350</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="n">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="8" t="str">
         <f aca="false">DEC2HEX(D8)</f>
         <v>7D5</v>
       </c>
-      <c r="AMI8" s="4"/>
-      <c r="AMJ8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI8" s="5"/>
+      <c r="AMJ8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>6101</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="8" t="str">
         <f aca="false">DEC2HEX(D9)</f>
         <v>17D5</v>
       </c>
-      <c r="AMI9" s="4"/>
-      <c r="AMJ9" s="4"/>
+      <c r="AMI9" s="5"/>
+      <c r="AMJ9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>10197</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="8" t="str">
         <f aca="false">DEC2HEX(D10)</f>
         <v>27D5</v>
       </c>
-      <c r="AMI10" s="4"/>
-      <c r="AMJ10" s="4"/>
+      <c r="AMI10" s="5"/>
+      <c r="AMJ10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>14293</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="8" t="str">
         <f aca="false">DEC2HEX(D11)</f>
         <v>37D5</v>
       </c>
-      <c r="AMI11" s="4"/>
-      <c r="AMJ11" s="4"/>
+      <c r="AMI11" s="5"/>
+      <c r="AMJ11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="n">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>18389</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="8" t="str">
         <f aca="false">DEC2HEX(D12)</f>
         <v>47D5</v>
       </c>
-      <c r="AMI12" s="4"/>
-      <c r="AMJ12" s="4"/>
+      <c r="AMI12" s="5"/>
+      <c r="AMJ12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>233000351</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="AMI13" s="4"/>
-      <c r="AMJ13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="AMI13" s="5"/>
+      <c r="AMJ13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>233000400</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>233000414</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>1991</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="6" t="str">
         <f aca="false">DEC2HEX(D14)</f>
         <v>7C7</v>
       </c>
-      <c r="AMI14" s="4"/>
-      <c r="AMJ14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI14" s="5"/>
+      <c r="AMJ14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>233000415</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>233000435</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>1992</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="8" t="str">
         <f aca="false">DEC2HEX(D15)</f>
         <v>7C8</v>
       </c>
-      <c r="AMI15" s="4"/>
-      <c r="AMJ15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI15" s="5"/>
+      <c r="AMJ15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>233000500</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>233000540</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="n">
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>1199</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="6" t="str">
         <f aca="false">DEC2HEX(D16)</f>
         <v>4AF</v>
       </c>
-      <c r="AMI16" s="4"/>
-      <c r="AMJ16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI16" s="5"/>
+      <c r="AMJ16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>233000541</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>233000555</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>1198</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="6" t="str">
         <f aca="false">DEC2HEX(D17)</f>
         <v>4AE</v>
       </c>
-      <c r="AMI17" s="4"/>
-      <c r="AMJ17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI17" s="5"/>
+      <c r="AMJ17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>233000556</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>233000570</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6" t="n">
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>1082</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="6" t="str">
         <f aca="false">DEC2HEX(D18)</f>
         <v>43A</v>
       </c>
-      <c r="AMI18" s="4"/>
-      <c r="AMJ18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI18" s="5"/>
+      <c r="AMJ18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>233000600</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>233000684</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="6" t="n">
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="7" t="n">
         <v>1081</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" s="6" t="str">
         <f aca="false">DEC2HEX(D19)</f>
         <v>439</v>
       </c>
-      <c r="AMI19" s="4"/>
-      <c r="AMJ19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI19" s="5"/>
+      <c r="AMJ19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="5" t="n">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>5177</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" s="6" t="str">
         <f aca="false">DEC2HEX(D20)</f>
         <v>1439</v>
       </c>
-      <c r="AMI20" s="4"/>
-      <c r="AMJ20" s="4"/>
+      <c r="AMI20" s="5"/>
+      <c r="AMJ20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="n">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>9273</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" s="6" t="str">
         <f aca="false">DEC2HEX(D21)</f>
         <v>2439</v>
       </c>
-      <c r="AMI21" s="4"/>
-      <c r="AMJ21" s="4"/>
+      <c r="AMI21" s="5"/>
+      <c r="AMJ21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>233000685</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>233000699</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="AMI22" s="4"/>
-      <c r="AMJ22" s="4"/>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI22" s="5"/>
+      <c r="AMJ22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>233000700</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>233000719</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="n">
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>1520</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="6" t="str">
         <f aca="false">DEC2HEX(D23)</f>
         <v>5F0</v>
       </c>
-      <c r="AMI23" s="4"/>
-      <c r="AMJ23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI23" s="5"/>
+      <c r="AMJ23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>233000720</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>233000739</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>1600</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="6" t="str">
         <f aca="false">DEC2HEX(D24)</f>
         <v>640</v>
       </c>
-      <c r="AMI24" s="4"/>
-      <c r="AMJ24" s="4"/>
+      <c r="AMI24" s="5"/>
+      <c r="AMJ24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>233000740</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>233000756</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5" t="n">
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>1618</v>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="6" t="str">
         <f aca="false">DEC2HEX(D25)</f>
         <v>652</v>
       </c>
-      <c r="AMI25" s="4"/>
-      <c r="AMJ25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI25" s="5"/>
+      <c r="AMJ25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>233000800</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="str">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="str">
         <f aca="false">DEC2HEX(D26)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="AMI26" s="4"/>
-      <c r="AMJ26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="AMI26" s="5"/>
+      <c r="AMJ26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>233000900</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="n">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AMI27" s="4"/>
-      <c r="AMJ27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI27" s="5"/>
+      <c r="AMJ27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>233001000</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>1527</v>
       </c>
-      <c r="E28" s="5" t="str">
+      <c r="E28" s="6" t="str">
         <f aca="false">DEC2HEX(D28)</f>
         <v>5F7</v>
       </c>
-      <c r="AMI28" s="4"/>
-      <c r="AMJ28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI28" s="5"/>
+      <c r="AMJ28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="5" t="n">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>1528</v>
       </c>
-      <c r="E29" s="5" t="str">
+      <c r="E29" s="6" t="str">
         <f aca="false">DEC2HEX(D29)</f>
         <v>5F8</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="AMI29" s="4"/>
-      <c r="AMJ29" s="4"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="AMI29" s="5"/>
+      <c r="AMJ29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>233001061</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5" t="n">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>1529</v>
       </c>
-      <c r="E30" s="5" t="str">
+      <c r="E30" s="6" t="str">
         <f aca="false">DEC2HEX(D30)</f>
         <v>5F9</v>
       </c>
-      <c r="AMI30" s="4"/>
-      <c r="AMJ30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI30" s="5"/>
+      <c r="AMJ30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>233001100</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="5" t="n">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="E31" s="5" t="str">
+      <c r="E31" s="6" t="str">
         <f aca="false">DEC2HEX(D31)</f>
         <v>7D0</v>
       </c>
-      <c r="AMI31" s="4"/>
-      <c r="AMJ31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI31" s="5"/>
+      <c r="AMJ31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>233001200</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="6" t="n">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7" t="n">
         <v>1225</v>
       </c>
-      <c r="E32" s="5" t="str">
+      <c r="E32" s="6" t="str">
         <f aca="false">DEC2HEX(D32)</f>
         <v>4C9</v>
       </c>
-      <c r="AMI32" s="4"/>
-      <c r="AMJ32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI32" s="5"/>
+      <c r="AMJ32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="5" t="n">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="6" t="n">
         <v>5321</v>
       </c>
-      <c r="E33" s="5" t="str">
+      <c r="E33" s="6" t="str">
         <f aca="false">DEC2HEX(D33)</f>
         <v>14C9</v>
       </c>
-      <c r="AMI33" s="4"/>
-      <c r="AMJ33" s="4"/>
+      <c r="AMI33" s="5"/>
+      <c r="AMJ33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>233001200</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5" t="n">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="6" t="n">
         <v>9417</v>
       </c>
-      <c r="E34" s="5" t="str">
+      <c r="E34" s="6" t="str">
         <f aca="false">DEC2HEX(D34)</f>
         <v>24C9</v>
       </c>
-      <c r="AMI34" s="4"/>
-      <c r="AMJ34" s="4"/>
+      <c r="AMI34" s="5"/>
+      <c r="AMJ34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>233001251</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>233001279</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="6" t="n">
+      <c r="C35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <v>2512</v>
       </c>
-      <c r="E35" s="5" t="str">
+      <c r="E35" s="6" t="str">
         <f aca="false">DEC2HEX(D35)</f>
         <v>9D0</v>
       </c>
-      <c r="AMI35" s="4"/>
-      <c r="AMJ35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI35" s="5"/>
+      <c r="AMJ35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="11" t="n">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="12" t="n">
         <v>2820560</v>
       </c>
-      <c r="E36" s="5" t="str">
+      <c r="E36" s="6" t="str">
         <f aca="false">DEC2HEX(D36)</f>
         <v>2B09D0</v>
       </c>
-      <c r="AMI36" s="4"/>
-      <c r="AMJ36" s="4"/>
+      <c r="AMI36" s="5"/>
+      <c r="AMJ36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
-        <v>233001280</v>
-      </c>
-      <c r="B37" s="12" t="n">
-        <v>233001299</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>1224</v>
-      </c>
-      <c r="E37" s="13" t="str">
-        <f aca="false">DEC2HEX(D37)</f>
-        <v>4C8</v>
-      </c>
-      <c r="AMI37" s="4"/>
-      <c r="AMJ37" s="4"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="AMI37" s="5"/>
+      <c r="AMJ37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>233001300</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>233001313</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5" t="n">
+      <c r="C38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6" t="n">
         <v>2007</v>
       </c>
-      <c r="E38" s="5" t="str">
+      <c r="E38" s="6" t="str">
         <f aca="false">DEC2HEX(D38)</f>
         <v>7D7</v>
       </c>
-      <c r="AMI38" s="4"/>
-      <c r="AMJ38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI38" s="5"/>
+      <c r="AMJ38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="n">
+      <c r="A39" s="6" t="n">
         <v>233001314</v>
       </c>
-      <c r="B39" s="15" t="n">
+      <c r="B39" s="6" t="n">
         <v>233001327</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="15" t="n">
+      <c r="C39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="n">
         <v>2008</v>
       </c>
-      <c r="E39" s="15" t="str">
+      <c r="E39" s="6" t="str">
         <f aca="false">DEC2HEX(D39)</f>
         <v>7D8</v>
       </c>
-      <c r="AMI39" s="4"/>
-      <c r="AMJ39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI39" s="5"/>
+      <c r="AMJ39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI40" s="4"/>
-      <c r="AMJ40" s="4"/>
+      <c r="A40" s="6" t="n">
+        <v>233001328</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>233001341</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f aca="false">DEC2HEX(D40)</f>
+        <v>4C8</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMI40" s="5"/>
+      <c r="AMJ40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AMI41" s="4"/>
-      <c r="AMJ41" s="4"/>
+      <c r="AMI41" s="5"/>
+      <c r="AMJ41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AMI42" s="4"/>
-      <c r="AMJ42" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="AMI42" s="5"/>
+      <c r="AMJ42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
+      <c r="A43" s="16"/>
       <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AMI43" s="4"/>
-      <c r="AMJ43" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="AMI43" s="5"/>
+      <c r="AMJ43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI44" s="4"/>
-      <c r="AMJ44" s="4"/>
+      <c r="A44" s="17"/>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AMI44" s="5"/>
+      <c r="AMJ44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI45" s="4"/>
-      <c r="AMJ45" s="4"/>
+      <c r="AMI45" s="5"/>
+      <c r="AMJ45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMI46" s="4"/>
-      <c r="AMJ46" s="4"/>
+      <c r="AMI46" s="5"/>
+      <c r="AMJ46" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Set ID 2019.xlsx
+++ b/Set ID 2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">New Start ID</t>
   </si>
@@ -91,6 +91,12 @@
     <t xml:space="preserve">Hazmat Animal</t>
   </si>
   <si>
+    <t xml:space="preserve">ZP Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14AD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ponies (FML)</t>
   </si>
   <si>
@@ -112,7 +118,7 @@
     <t xml:space="preserve">Phoenix Guardian</t>
   </si>
   <si>
-    <t xml:space="preserve">“Single/Archetype” prompts</t>
+    <t xml:space="preserve">Rush Duel cards</t>
   </si>
   <si>
     <t xml:space="preserve">Generic 1</t>
@@ -257,14 +263,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -374,11 +380,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ46"/>
+  <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,43 +796,33 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>233000541</v>
+        <v>233000598</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>233000555</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>1198</v>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f aca="false">DEC2HEX(D17)</f>
-        <v>4AE</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>233000599</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="AMI17" s="5"/>
       <c r="AMJ17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>233000556</v>
+        <v>233000541</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>233000570</v>
+        <v>233000555</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>1082</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1198</v>
       </c>
       <c r="E18" s="6" t="str">
         <f aca="false">DEC2HEX(D18)</f>
-        <v>43A</v>
+        <v>4AE</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -836,20 +832,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>233000600</v>
+        <v>233000556</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>233000684</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>233000570</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">DEC2HEX(D19)</f>
-        <v>439</v>
+        <v>43A</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -858,17 +854,21 @@
       <c r="AMJ19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>5177</v>
+      <c r="A20" s="6" t="n">
+        <v>233000571</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>233000585</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>1197</v>
       </c>
       <c r="E20" s="6" t="str">
         <f aca="false">DEC2HEX(D20)</f>
-        <v>1439</v>
+        <v>4AD</v>
       </c>
       <c r="AMI20" s="5"/>
       <c r="AMJ20" s="5"/>
@@ -876,31 +876,34 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>9273</v>
-      </c>
-      <c r="E21" s="6" t="str">
-        <f aca="false">DEC2HEX(D21)</f>
-        <v>2439</v>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="n">
+        <f aca="false">HEX2DEC(E21)</f>
+        <v>5293</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="AMI21" s="5"/>
       <c r="AMJ21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>233000685</v>
+        <v>233000600</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>233000699</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>233000684</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f aca="false">DEC2HEX(D22)</f>
+        <v>439</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,65 +911,49 @@
       <c r="AMJ22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>233000700</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>233000719</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1520</v>
+        <v>5177</v>
       </c>
       <c r="E23" s="6" t="str">
         <f aca="false">DEC2HEX(D23)</f>
-        <v>5F0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>1439</v>
       </c>
       <c r="AMI23" s="5"/>
       <c r="AMJ23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>233000720</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>233000739</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1600</v>
+        <v>9273</v>
       </c>
       <c r="E24" s="6" t="str">
         <f aca="false">DEC2HEX(D24)</f>
-        <v>640</v>
+        <v>2439</v>
       </c>
       <c r="AMI24" s="5"/>
       <c r="AMJ24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>233000740</v>
+        <v>233000685</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>233000756</v>
+        <v>233000699</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>1618</v>
-      </c>
-      <c r="E25" s="6" t="str">
-        <f aca="false">DEC2HEX(D25)</f>
-        <v>652</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,54 +961,64 @@
       <c r="AMJ25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>233000800</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="str">
+      <c r="A26" s="6" t="n">
+        <v>233000700</v>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>233000719</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E26" s="6" t="str">
         <f aca="false">DEC2HEX(D26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>5F0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AMI26" s="5"/>
       <c r="AMJ26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>233000900</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>233000720</v>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>233000739</v>
+      </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f aca="false">DEC2HEX(D27)</f>
+        <v>640</v>
       </c>
       <c r="AMI27" s="5"/>
       <c r="AMJ27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>233001000</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>233000740</v>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>233000756</v>
+      </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>1527</v>
+        <v>1618</v>
       </c>
       <c r="E28" s="6" t="str">
         <f aca="false">DEC2HEX(D28)</f>
-        <v>5F7</v>
+        <v>652</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -1030,18 +1027,19 @@
       <c r="AMJ28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>1528</v>
-      </c>
-      <c r="E29" s="6" t="str">
+      <c r="A29" s="10" t="n">
+        <v>233000800</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="str">
         <f aca="false">DEC2HEX(D29)</f>
-        <v>5F8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="AMI29" s="5"/>
@@ -1049,18 +1047,15 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>233001061</v>
+        <v>233000900</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>1529</v>
-      </c>
-      <c r="E30" s="6" t="str">
-        <f aca="false">DEC2HEX(D30)</f>
-        <v>5F9</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -1070,18 +1065,18 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>233001100</v>
+        <v>233001000</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2000</v>
+        <v>1527</v>
       </c>
       <c r="E31" s="6" t="str">
         <f aca="false">DEC2HEX(D31)</f>
-        <v>7D0</v>
+        <v>5F7</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>6</v>
@@ -1090,76 +1085,77 @@
       <c r="AMJ31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
-        <v>233001200</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>1225</v>
+      <c r="C32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>1528</v>
       </c>
       <c r="E32" s="6" t="str">
         <f aca="false">DEC2HEX(D32)</f>
-        <v>4C9</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>6</v>
+        <v>5F8</v>
       </c>
       <c r="AMI32" s="5"/>
       <c r="AMJ32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="n">
+        <v>233001061</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5321</v>
+        <v>1529</v>
       </c>
       <c r="E33" s="6" t="str">
         <f aca="false">DEC2HEX(D33)</f>
-        <v>14C9</v>
+        <v>5F9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AMI33" s="5"/>
       <c r="AMJ33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>233001200</v>
+        <v>233001100</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9417</v>
+        <v>2000</v>
       </c>
       <c r="E34" s="6" t="str">
         <f aca="false">DEC2HEX(D34)</f>
-        <v>24C9</v>
+        <v>7D0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AMI34" s="5"/>
       <c r="AMJ34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>233001251</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>233001279</v>
-      </c>
+        <v>233001200</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2512</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="6" t="str">
         <f aca="false">DEC2HEX(D35)</f>
-        <v>9D0</v>
+        <v>4C9</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>6</v>
@@ -1171,43 +1167,52 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="12" t="n">
-        <v>2820560</v>
+        <v>39</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>5321</v>
       </c>
       <c r="E36" s="6" t="str">
         <f aca="false">DEC2HEX(D36)</f>
-        <v>2B09D0</v>
+        <v>14C9</v>
       </c>
       <c r="AMI36" s="5"/>
       <c r="AMJ36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="6" t="n">
+        <v>233001200</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>9417</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f aca="false">DEC2HEX(D37)</f>
+        <v>24C9</v>
+      </c>
       <c r="AMI37" s="5"/>
       <c r="AMJ37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
-        <v>233001300</v>
+        <v>233001251</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>233001313</v>
-      </c>
-      <c r="C38" s="6" t="s">
+        <v>233001279</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="6" t="n">
-        <v>2007</v>
+      <c r="D38" s="7" t="n">
+        <v>2512</v>
       </c>
       <c r="E38" s="6" t="str">
         <f aca="false">DEC2HEX(D38)</f>
-        <v>7D7</v>
+        <v>9D0</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -1216,86 +1221,124 @@
       <c r="AMJ38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
-        <v>233001314</v>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>233001327</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>2008</v>
+      <c r="D39" s="12" t="n">
+        <v>2820560</v>
       </c>
       <c r="E39" s="6" t="str">
         <f aca="false">DEC2HEX(D39)</f>
-        <v>7D8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
+        <v>2B09D0</v>
       </c>
       <c r="AMI39" s="5"/>
       <c r="AMJ39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
-        <v>233001328</v>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>233001341</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>1224</v>
-      </c>
-      <c r="E40" s="7" t="str">
-        <f aca="false">DEC2HEX(D40)</f>
-        <v>4C8</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
       <c r="AMI40" s="5"/>
       <c r="AMJ40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>233001300</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>233001313</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f aca="false">DEC2HEX(D41)</f>
+        <v>7D7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AMI41" s="5"/>
       <c r="AMJ41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="6" t="n">
+        <v>233001314</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>233001327</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f aca="false">DEC2HEX(D42)</f>
+        <v>7D8</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AMI42" s="5"/>
       <c r="AMJ42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="6" t="n">
+        <v>233001328</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>233001341</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f aca="false">DEC2HEX(D43)</f>
+        <v>4C8</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="AMI43" s="5"/>
       <c r="AMJ43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="AMI44" s="5"/>
       <c r="AMJ44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15"/>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AMI45" s="5"/>
       <c r="AMJ45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16"/>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="AMI46" s="5"/>
       <c r="AMJ46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17"/>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
